--- a/biology/Zoologie/Afrolittorina/Afrolittorina.xlsx
+++ b/biology/Zoologie/Afrolittorina/Afrolittorina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afrolittorina est un genre de mollusques gastéropodes marins de la famille des Littorinidae dont l'espèce-type est Afrolittorina africana[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afrolittorina est un genre de mollusques gastéropodes marins de la famille des Littorinidae dont l'espèce-type est Afrolittorina africana.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (19 janvier 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (19 janvier 2024) :
 Afrolittorina acutispira (E. A. Smith, 1892)
 Afrolittorina africana (R. A. Philippi, 1847)
 Afrolittorina knysnaensis (R. A. Philippi, 1847)
@@ -545,9 +559,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Afrolittorina Williams (d), Reid (d) &amp; Littlewood (d), 2003[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Afrolittorina Williams (d), Reid (d) &amp; Littlewood (d), 2003.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) S.T. Williams, D. Reid et D.T.J. Littlewood, « A molecular phylogeny of the Littorininae (Gastropoda: Littorinidae): unequal evolutionary rates, morphological parallelism, and biogeography of the Southern Ocean », Molecular Phylogenetics and Evolution, États-Unis, vol. 28, no 1,‎ juillet 2003, p. 60-86 (ISSN 1055-7903, e-ISSN 1095-9513, DOI doi.org/10.1016/s1055-7903(03)00038-1).</t>
         </is>
